--- a/EmployeeDetailsTable.xlsx
+++ b/EmployeeDetailsTable.xlsx
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -153,8 +159,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>

--- a/EmployeeDetailsTable.xlsx
+++ b/EmployeeDetailsTable.xlsx
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +93,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -145,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,9 +153,6 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,9 +160,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -482,14 +470,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -534,7 +522,7 @@
       <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -551,7 +539,7 @@
       <c r="D3" s="3">
         <v>1200</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>1</v>
       </c>
@@ -573,8 +561,8 @@
       <c r="D4" s="3">
         <v>1800</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>15</v>
@@ -593,8 +581,8 @@
       <c r="D5" s="3">
         <v>1200</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>17</v>
